--- a/DataExtraction/Input/LLP/Form_11/FORM-11_nodes_config.xlsx
+++ b/DataExtraction/Input/LLP/Form_11/FORM-11_nodes_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Field_Name</t>
   </si>
@@ -54,6 +54,286 @@
   </si>
   <si>
     <t>STREET</t>
+  </si>
+  <si>
+    <t>LLP</t>
+  </si>
+  <si>
+    <t>ba_address_line1</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>HOUSE_NUMBER</t>
+  </si>
+  <si>
+    <t>ba_address_line2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>ba_city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>POSTAL_PINCODE</t>
+  </si>
+  <si>
+    <t>ba_pincode</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>REGION_STATE</t>
+  </si>
+  <si>
+    <t>ba_state</t>
+  </si>
+  <si>
+    <t>last_annual_returns_filed_date</t>
+  </si>
+  <si>
+    <t>ZMCA_LLP_FORM12</t>
+  </si>
+  <si>
+    <t>STRT_DATE_FIN_YR</t>
+  </si>
+  <si>
+    <t>last_filing_date</t>
+  </si>
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>T_FORM11_SECTN10/DATA</t>
+  </si>
+  <si>
+    <t>SIGNER_ID,SIGNER_ID,DESIGNATION,NATIONALITY</t>
+  </si>
+  <si>
+    <t>authorized_signatories</t>
+  </si>
+  <si>
+    <t>din,pan,designation,nationality</t>
+  </si>
+  <si>
+    <t>din</t>
+  </si>
+  <si>
+    <t>SIGNER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if SIGNER_ID is only number </t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if SIGNER_ID is aplhanumeric </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>NOT ABLE TO GET FROM XML</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>date_of_appointment</t>
+  </si>
+  <si>
+    <t>Date of Appointment</t>
+  </si>
+  <si>
+    <t>date_of_cessation</t>
+  </si>
+  <si>
+    <t>Date of Cessation</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>Fathers name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Permanent Residential Address</t>
+  </si>
+  <si>
+    <t>contribution_details</t>
+  </si>
+  <si>
+    <t>financial_year</t>
+  </si>
+  <si>
+    <t>ANNUAL_RETURN</t>
+  </si>
+  <si>
+    <t>individual_partners</t>
+  </si>
+  <si>
+    <t>SIGNER_ID,id_type,DESIGNATION,OBL_CONTRI,CONTRI_REC</t>
+  </si>
+  <si>
+    <t>signer_id,id_type,designation,obligation_contribution,received_contribution</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>signer_id</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>IF APLHANUMERIC PAN.ONLY NUMBERS MEANS DIN</t>
+  </si>
+  <si>
+    <t>obligation_contribution</t>
+  </si>
+  <si>
+    <t>OBL_CONTRI</t>
+  </si>
+  <si>
+    <t>received_contribution</t>
+  </si>
+  <si>
+    <t>CONTRI_REC</t>
+  </si>
+  <si>
+    <t>body_corporates</t>
+  </si>
+  <si>
+    <t>T_FORM11_SECTN11/DATA</t>
+  </si>
+  <si>
+    <t>DESIGNATION,OBL_CONTRI,CONTRI_REC,SIGNER_ID,nominee_id_type</t>
+  </si>
+  <si>
+    <t>designation,obligation_contribution,received_contribution,nominee_id,nominee_id_type</t>
+  </si>
+  <si>
+    <t>CIN / LLP corporate type</t>
+  </si>
+  <si>
+    <t>Name of the body corporate</t>
+  </si>
+  <si>
+    <t>nominee_id</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>nominee_name</t>
+  </si>
+  <si>
+    <t>nominee_id_type</t>
+  </si>
+  <si>
+    <t>DIN/PAN/PASSPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  as per nominee_id we get from Form 11
+DIN-7 digit/
+PAN-10digit alpha numeric/
+Passport-others</t>
+  </si>
+  <si>
+    <t>summary_designated_partners</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Category " type of category like Individuals, LLPs , company etc" and multipe for each Category
+Logic - Based on Each type, we need to create below sub fields &amp; capture the details in respective column</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>Number of Partners</t>
+  </si>
+  <si>
+    <t>indian_desig_partner</t>
+  </si>
+  <si>
+    <t>Resident in India</t>
+  </si>
+  <si>
+    <t>other_desig_partner</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>principal_business_activities</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>business_classification</t>
+  </si>
+  <si>
+    <t>BUSINESS_CLASS</t>
+  </si>
+  <si>
+    <t>(half name is coming in xml)</t>
+  </si>
+  <si>
+    <t>main_activity_group_description</t>
+  </si>
+  <si>
+    <t>PRIN_ACTIVITY</t>
+  </si>
+  <si>
+    <t>business_activity_description</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <r>
@@ -64,283 +344,6 @@
       </rPr>
       <t>Company</t>
     </r>
-  </si>
-  <si>
-    <t>ba_address_line1</t>
-  </si>
-  <si>
-    <t>address_line2</t>
-  </si>
-  <si>
-    <t>HOUSE_NUMBER</t>
-  </si>
-  <si>
-    <t>ba_address_line2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>ba_city</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>POSTAL_PINCODE</t>
-  </si>
-  <si>
-    <t>ba_pincode</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>REGION_STATE</t>
-  </si>
-  <si>
-    <t>ba_state</t>
-  </si>
-  <si>
-    <t>last_annual_returns_filed_date</t>
-  </si>
-  <si>
-    <t>ZMCA_LLP_FORM12</t>
-  </si>
-  <si>
-    <t>STRT_DATE_FIN_YR</t>
-  </si>
-  <si>
-    <t>last_filing_date</t>
-  </si>
-  <si>
-    <t>directors</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>T_FORM11_SECTN10/DATA</t>
-  </si>
-  <si>
-    <t>SIGNER_ID,SIGNER_ID,DESIGNATION,NATIONALITY</t>
-  </si>
-  <si>
-    <t>authorized_signatories</t>
-  </si>
-  <si>
-    <t>din,pan,designation,nationality</t>
-  </si>
-  <si>
-    <t>din</t>
-  </si>
-  <si>
-    <t>SIGNER_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if SIGNER_ID is only number </t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if SIGNER_ID is aplhanumeric </t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>NOT ABLE TO GET FROM XML</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>DESIGNATION</t>
-  </si>
-  <si>
-    <t>date_of_appointment</t>
-  </si>
-  <si>
-    <t>Date of Appointment</t>
-  </si>
-  <si>
-    <t>date_of_cessation</t>
-  </si>
-  <si>
-    <t>Date of Cessation</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>NATIONALITY</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>Fathers name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Permanent Residential Address</t>
-  </si>
-  <si>
-    <t>contribution_details</t>
-  </si>
-  <si>
-    <t>financial_year</t>
-  </si>
-  <si>
-    <t>ANNUAL_RETURN</t>
-  </si>
-  <si>
-    <t>individual_partners</t>
-  </si>
-  <si>
-    <t>SIGNER_ID,id_type,DESIGNATION,OBL_CONTRI,CONTRI_REC</t>
-  </si>
-  <si>
-    <t>signer_id,id_type,designation,obligation_contribution,received_contribution</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>signer_id</t>
-  </si>
-  <si>
-    <t>id_type</t>
-  </si>
-  <si>
-    <t>LOGIC</t>
-  </si>
-  <si>
-    <t>IF APLHANUMERIC PAN.ONLY NUMBERS MEANS DIN</t>
-  </si>
-  <si>
-    <t>obligation_contribution</t>
-  </si>
-  <si>
-    <t>OBL_CONTRI</t>
-  </si>
-  <si>
-    <t>received_contribution</t>
-  </si>
-  <si>
-    <t>CONTRI_REC</t>
-  </si>
-  <si>
-    <t>body_corporates</t>
-  </si>
-  <si>
-    <t>T_FORM11_SECTN11/DATA</t>
-  </si>
-  <si>
-    <t>DESIGNATION,OBL_CONTRI,CONTRI_REC,SIGNER_ID,nominee_id_type</t>
-  </si>
-  <si>
-    <t>designation,obligation_contribution,received_contribution,nominee_id,nominee_id_type</t>
-  </si>
-  <si>
-    <t>CIN / LLP corporate type</t>
-  </si>
-  <si>
-    <t>Name of the body corporate</t>
-  </si>
-  <si>
-    <t>nominee_id</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>nominee_name</t>
-  </si>
-  <si>
-    <t>nominee_id_type</t>
-  </si>
-  <si>
-    <t>DIN/PAN/PASSPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  as per nominee_id we get from Form 11
-DIN-7 digit/
-PAN-10digit alpha numeric/
-Passport-others</t>
-  </si>
-  <si>
-    <t>summary_designated_partners</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Category " type of category like Individuals, LLPs , company etc" and multipe for each Category
-Logic - Based on Each type, we need to create below sub fields &amp; capture the details in respective column</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>Number of Partners</t>
-  </si>
-  <si>
-    <t>indian_desig_partner</t>
-  </si>
-  <si>
-    <t>Resident in India</t>
-  </si>
-  <si>
-    <t>other_desig_partner</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>principal_business_activities</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>business_classification</t>
-  </si>
-  <si>
-    <t>BUSINESS_CLASS</t>
-  </si>
-  <si>
-    <t>(half name is coming in xml)</t>
-  </si>
-  <si>
-    <t>main_activity_group_description</t>
-  </si>
-  <si>
-    <t>PRIN_ACTIVITY</t>
-  </si>
-  <si>
-    <t>business_activity_description</t>
-  </si>
-  <si>
-    <t>Multiple</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>T_FORM11_SECTN10 dd:minOccur="0"/DATA dd:maxOccur="-1"</t>
@@ -3254,14 +3257,6 @@
       <c r="I51" s="83"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="" tooltip="" display="Company"/>
-    <hyperlink ref="G5" r:id="rId2" location="" tooltip="" display="Company"/>
-    <hyperlink ref="G6" r:id="rId3" location="" tooltip="" display="Company"/>
-    <hyperlink ref="G7" r:id="rId4" location="" tooltip="" display="Company"/>
-    <hyperlink ref="G8" r:id="rId5" location="" tooltip="" display="Company"/>
-    <hyperlink ref="G9" r:id="rId6" location="" tooltip="" display="Company"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -3366,7 +3361,7 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" t="s" s="17">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s" s="18">
         <v>15</v>
@@ -3392,7 +3387,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" t="s" s="17">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s" s="18">
         <v>18</v>
@@ -3418,7 +3413,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" t="s" s="17">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s" s="18">
         <v>21</v>
@@ -3444,7 +3439,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" t="s" s="17">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s" s="18">
         <v>24</v>
@@ -3470,7 +3465,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" t="s" s="17">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s" s="19">
         <v>27</v>
@@ -3496,7 +3491,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" t="s" s="21">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>28</v>
@@ -3957,7 +3952,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s" s="61">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s" s="16">
         <v>39</v>
@@ -4025,7 +4020,7 @@
         <v>33</v>
       </c>
       <c r="E33" t="s" s="61">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s" s="17">
         <v>47</v>
@@ -4051,7 +4046,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="s" s="61">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s" s="16">
         <v>70</v>
@@ -4077,7 +4072,7 @@
         <v>33</v>
       </c>
       <c r="E35" t="s" s="61">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s" s="16">
         <v>72</v>
@@ -4298,7 +4293,7 @@
         <v>12</v>
       </c>
       <c r="F45" t="s" s="91">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G45" s="92"/>
       <c r="H45" t="s" s="60">

--- a/DataExtraction/Input/LLP/Form_11/FORM-11_nodes_config.xlsx
+++ b/DataExtraction/Input/LLP/Form_11/FORM-11_nodes_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Field_Name</t>
   </si>
@@ -56,7 +56,11 @@
     <t>STREET</t>
   </si>
   <si>
-    <t>LLP</t>
+    <t>Add Financial year
+Full address, cin, Company name, insert only no update</t>
+  </si>
+  <si>
+    <t>ba_address</t>
   </si>
   <si>
     <t>ba_address_line1</t>
@@ -101,13 +105,10 @@
     <t>last_annual_returns_filed_date</t>
   </si>
   <si>
-    <t>ZMCA_LLP_FORM12</t>
-  </si>
-  <si>
     <t>STRT_DATE_FIN_YR</t>
   </si>
   <si>
-    <t>last_filing_date</t>
+    <t>full_address</t>
   </si>
   <si>
     <t>directors</t>
@@ -344,6 +345,9 @@
       </rPr>
       <t>Company</t>
     </r>
+  </si>
+  <si>
+    <t>ZMCA_LLP_FORM12</t>
   </si>
   <si>
     <t>T_FORM11_SECTN10 dd:minOccur="0"/DATA dd:maxOccur="-1"</t>
@@ -839,7 +843,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -890,6 +894,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2181,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2252,7 +2262,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="38.35" customHeight="1">
       <c r="A4" t="s" s="11">
         <v>10</v>
       </c>
@@ -2266,18 +2276,20 @@
       <c r="E4" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" t="s" s="17">
+      <c r="F4" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="H4" t="s" s="18">
+      <c r="G4" t="s" s="19">
         <v>15</v>
+      </c>
+      <c r="H4" t="s" s="20">
+        <v>16</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" t="s" s="15">
@@ -2286,21 +2298,21 @@
       <c r="D5" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E5" t="s" s="17">
-        <v>17</v>
+      <c r="E5" t="s" s="19">
+        <v>18</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s" s="18">
-        <v>18</v>
+      <c r="G5" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="20">
+        <v>19</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" t="s" s="15">
@@ -2310,20 +2322,20 @@
         <v>12</v>
       </c>
       <c r="E6" t="s" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s" s="18">
-        <v>21</v>
+      <c r="G6" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="20">
+        <v>22</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" t="s" s="15">
@@ -2332,21 +2344,21 @@
       <c r="D7" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="17">
-        <v>23</v>
+      <c r="E7" t="s" s="19">
+        <v>24</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="18">
-        <v>24</v>
+      <c r="G7" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="20">
+        <v>25</v>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" t="s" s="15">
@@ -2356,863 +2368,863 @@
         <v>12</v>
       </c>
       <c r="E8" t="s" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="19">
-        <v>27</v>
+      <c r="G8" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="21">
+        <v>28</v>
       </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="22"/>
       <c r="C9" t="s" s="15">
         <v>11</v>
       </c>
       <c r="D9" t="s" s="16">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s" s="16">
         <v>30</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" t="s" s="21">
-        <v>14</v>
+      <c r="G9" t="s" s="23">
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="23">
+      <c r="B10" s="22"/>
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="25">
         <v>32</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" t="s" s="26">
+      <c r="B11" s="26"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" ht="14" customHeight="1">
+      <c r="A12" t="s" s="28">
         <v>32</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" t="s" s="28">
+      <c r="B12" s="29"/>
+      <c r="C12" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="29">
+      <c r="D12" t="s" s="31">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="29">
+      <c r="E12" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" t="s" s="31">
+      <c r="F12" s="32"/>
+      <c r="G12" t="s" s="33">
         <v>36</v>
       </c>
-      <c r="H11" t="s" s="26">
+      <c r="H12" t="s" s="28">
         <v>37</v>
       </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" ht="14" customHeight="1">
-      <c r="A12" t="s" s="33">
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" ht="14" customHeight="1">
+      <c r="A13" t="s" s="35">
         <v>38</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="13"/>
-      <c r="D12" t="s" s="16">
+      <c r="B13" s="36"/>
+      <c r="C13" s="13"/>
+      <c r="D13" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="E12" t="s" s="16">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" ht="14" customHeight="1">
-      <c r="A13" t="s" s="33">
-        <v>41</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9"/>
       <c r="E13" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="F13" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s" s="21">
+      <c r="F13" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H13" t="s" s="33">
+      <c r="H13" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" ht="14" customHeight="1">
+      <c r="A14" t="s" s="35">
         <v>41</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" ht="14" customHeight="1">
-      <c r="A14" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s" s="33">
-        <v>44</v>
-      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="13"/>
       <c r="D14" s="9"/>
-      <c r="E14" t="s" s="35">
+      <c r="E14" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" ht="14" customHeight="1">
+      <c r="A15" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" t="s" s="21">
+      <c r="F15" s="9"/>
+      <c r="G15" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H14" t="s" s="33">
+      <c r="H15" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" ht="14" customHeight="1">
-      <c r="A15" t="s" s="33">
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" ht="14" customHeight="1">
+      <c r="A16" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="13"/>
-      <c r="D15" t="s" s="16">
+      <c r="B16" s="36"/>
+      <c r="C16" s="13"/>
+      <c r="D16" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="E15" t="s" s="16">
+      <c r="E16" t="s" s="16">
         <v>47</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" t="s" s="21">
+      <c r="F16" s="9"/>
+      <c r="G16" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H15" t="s" s="33">
+      <c r="H16" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" ht="14" customHeight="1">
-      <c r="A16" t="s" s="33">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" ht="14" customHeight="1">
+      <c r="A17" t="s" s="35">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="33">
+      <c r="B17" t="s" s="35">
         <v>49</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9"/>
-      <c r="E16" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s" s="33">
-        <v>48</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" ht="14" customHeight="1">
-      <c r="A17" t="s" s="33">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s" s="11">
-        <v>51</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="9"/>
-      <c r="E17" t="s" s="35">
+      <c r="E17" t="s" s="37">
         <v>45</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" t="s" s="21">
+      <c r="G17" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H17" t="s" s="33">
+      <c r="H17" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" ht="14" customHeight="1">
+      <c r="A18" t="s" s="35">
         <v>50</v>
       </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" ht="14" customHeight="1">
-      <c r="A18" t="s" s="33">
+      <c r="B18" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" ht="14" customHeight="1">
+      <c r="A19" t="s" s="35">
         <v>52</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="13"/>
-      <c r="D18" t="s" s="16">
+      <c r="B19" s="36"/>
+      <c r="C19" s="13"/>
+      <c r="D19" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="E18" t="s" s="36">
+      <c r="E19" t="s" s="38">
         <v>53</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" t="s" s="21">
+      <c r="F19" s="9"/>
+      <c r="G19" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H18" t="s" s="33">
+      <c r="H19" t="s" s="35">
         <v>52</v>
       </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" ht="14" customHeight="1">
-      <c r="A19" t="s" s="33">
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" ht="14" customHeight="1">
+      <c r="A20" t="s" s="35">
         <v>54</v>
       </c>
-      <c r="B19" t="s" s="33">
+      <c r="B20" t="s" s="35">
         <v>55</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="9"/>
-      <c r="E19" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s" s="33">
-        <v>54</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" ht="14" customHeight="1">
-      <c r="A20" t="s" s="33">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s" s="33">
-        <v>57</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="9"/>
-      <c r="E20" t="s" s="35">
+      <c r="E20" t="s" s="37">
         <v>45</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" t="s" s="21">
+      <c r="G20" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="H20" t="s" s="33">
+      <c r="H20" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" ht="14" customHeight="1">
+      <c r="A21" t="s" s="35">
         <v>56</v>
       </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="37">
+      <c r="B21" t="s" s="35">
+        <v>57</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s" s="35">
+        <v>56</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="39">
         <v>58</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" ht="14" customHeight="1">
-      <c r="A22" t="s" s="39">
+      <c r="B22" s="26"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" ht="14" customHeight="1">
+      <c r="A23" t="s" s="41">
         <v>59</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" t="s" s="41">
+      <c r="B23" s="42"/>
+      <c r="C23" t="s" s="43">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="42">
+      <c r="D23" t="s" s="44">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="42">
+      <c r="E23" t="s" s="44">
         <v>60</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" t="s" s="44">
+      <c r="F23" s="45"/>
+      <c r="G23" t="s" s="46">
         <v>61</v>
       </c>
-      <c r="H22" t="s" s="39">
+      <c r="H23" t="s" s="41">
         <v>59</v>
       </c>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" ht="14" customHeight="1">
-      <c r="A23" t="s" s="44">
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" ht="14" customHeight="1">
+      <c r="A24" t="s" s="46">
         <v>61</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" t="s" s="41">
+      <c r="B24" s="42"/>
+      <c r="C24" t="s" s="43">
         <v>33</v>
       </c>
-      <c r="D23" t="s" s="42">
+      <c r="D24" t="s" s="44">
         <v>34</v>
       </c>
-      <c r="E23" t="s" s="42">
+      <c r="E24" t="s" s="44">
         <v>62</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" t="s" s="44">
+      <c r="F24" s="45"/>
+      <c r="G24" t="s" s="46">
         <v>61</v>
       </c>
-      <c r="H23" t="s" s="46">
+      <c r="H24" t="s" s="48">
         <v>63</v>
       </c>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" ht="14" customHeight="1">
-      <c r="A24" t="s" s="33">
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" ht="14" customHeight="1">
+      <c r="A25" t="s" s="35">
         <v>64</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="9"/>
-      <c r="E24" t="s" s="16">
+      <c r="B25" s="36"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s" s="33">
-        <v>65</v>
-      </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" ht="30.75" customHeight="1">
-      <c r="A25" t="s" s="33">
-        <v>66</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="13"/>
-      <c r="D25" t="s" s="17">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s" s="49">
-        <v>68</v>
-      </c>
+      <c r="F25" s="50"/>
       <c r="G25" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="H25" t="s" s="33">
+      <c r="H25" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" ht="30.75" customHeight="1">
+      <c r="A26" t="s" s="35">
         <v>66</v>
       </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" ht="14" customHeight="1">
-      <c r="A26" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s" s="33">
-        <v>44</v>
-      </c>
+      <c r="B26" s="36"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="9"/>
-      <c r="E26" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F26" s="48"/>
+      <c r="D26" t="s" s="19">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s" s="51">
+        <v>68</v>
+      </c>
       <c r="G26" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="H26" t="s" s="33">
+      <c r="H26" t="s" s="35">
+        <v>66</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" ht="14" customHeight="1">
+      <c r="A27" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" ht="14" customHeight="1">
-      <c r="A27" t="s" s="33">
-        <v>46</v>
-      </c>
-      <c r="B27" s="34"/>
+      <c r="B27" t="s" s="35">
+        <v>44</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="F27" s="48"/>
+      <c r="D27" s="9"/>
+      <c r="E27" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F27" s="50"/>
       <c r="G27" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="H27" t="s" s="33">
+      <c r="H27" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" ht="14" customHeight="1">
+      <c r="A28" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" ht="14" customHeight="1">
-      <c r="A28" t="s" s="33">
-        <v>69</v>
-      </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13"/>
       <c r="D28" t="s" s="16">
         <v>34</v>
       </c>
       <c r="E28" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="F28" s="48"/>
+        <v>47</v>
+      </c>
+      <c r="F28" s="50"/>
       <c r="G28" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="H28" t="s" s="33">
+      <c r="H28" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" ht="14" customHeight="1">
+      <c r="A29" t="s" s="35">
         <v>69</v>
       </c>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" ht="14" customHeight="1">
-      <c r="A29" t="s" s="33">
-        <v>71</v>
-      </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="13"/>
       <c r="D29" t="s" s="16">
         <v>34</v>
       </c>
       <c r="E29" t="s" s="16">
-        <v>72</v>
-      </c>
-      <c r="F29" s="48"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="50"/>
       <c r="G29" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="H29" t="s" s="33">
+      <c r="H29" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" ht="14" customHeight="1">
+      <c r="A30" t="s" s="35">
         <v>71</v>
       </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" ht="39.55" customHeight="1">
-      <c r="A31" t="s" s="51">
+      <c r="D30" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s" s="16">
+        <v>72</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s" s="35">
+        <v>71</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" ht="39.55" customHeight="1">
+      <c r="A32" t="s" s="53">
         <v>73</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" t="s" s="53">
+      <c r="B32" s="54"/>
+      <c r="C32" t="s" s="55">
         <v>33</v>
       </c>
-      <c r="D31" t="s" s="54">
+      <c r="D32" t="s" s="56">
         <v>74</v>
       </c>
-      <c r="E31" t="s" s="55">
+      <c r="E32" t="s" s="57">
         <v>75</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" t="s" s="51">
+      <c r="F32" s="58"/>
+      <c r="G32" t="s" s="53">
         <v>73</v>
       </c>
-      <c r="H31" t="s" s="57">
+      <c r="H32" t="s" s="59">
         <v>76</v>
       </c>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" ht="14" customHeight="1">
-      <c r="A32" t="s" s="33">
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" ht="14" customHeight="1">
+      <c r="A33" t="s" s="35">
         <v>64</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="59"/>
-      <c r="E32" t="s" s="35">
+      <c r="B33" s="22"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="61"/>
+      <c r="E33" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s" s="33">
-        <v>65</v>
-      </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" ht="14" customHeight="1">
-      <c r="A33" t="s" s="33">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s" s="33">
-        <v>77</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="9"/>
-      <c r="E33" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="50"/>
       <c r="G33" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H33" t="s" s="33">
+      <c r="H33" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" ht="14" customHeight="1">
+      <c r="A34" t="s" s="35">
         <v>66</v>
       </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" ht="14" customHeight="1">
-      <c r="A34" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s" s="60">
-        <v>78</v>
+      <c r="B34" t="s" s="35">
+        <v>77</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="9"/>
-      <c r="E34" t="s" s="35">
+      <c r="E34" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="50"/>
       <c r="G34" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H34" t="s" s="33">
+      <c r="H34" t="s" s="35">
+        <v>66</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" ht="14" customHeight="1">
+      <c r="A35" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" ht="37.5" customHeight="1">
-      <c r="A35" t="s" s="33">
-        <v>46</v>
-      </c>
-      <c r="B35" s="50"/>
+      <c r="B35" t="s" s="62">
+        <v>78</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" t="s" s="61">
-        <v>74</v>
-      </c>
-      <c r="E35" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="F35" s="48"/>
+      <c r="D35" s="9"/>
+      <c r="E35" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H35" t="s" s="33">
+      <c r="H35" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" ht="37.5" customHeight="1">
+      <c r="A36" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" ht="37.5" customHeight="1">
-      <c r="A36" t="s" s="33">
-        <v>69</v>
-      </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="13"/>
-      <c r="D36" t="s" s="16">
+      <c r="D36" t="s" s="63">
         <v>74</v>
       </c>
-      <c r="E36" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="F36" s="48"/>
+      <c r="E36" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="F36" s="50"/>
       <c r="G36" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H36" t="s" s="33">
+      <c r="H36" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" ht="37.5" customHeight="1">
+      <c r="A37" t="s" s="35">
         <v>69</v>
       </c>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" ht="37.5" customHeight="1">
-      <c r="A37" t="s" s="62">
-        <v>71</v>
-      </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="13"/>
       <c r="D37" t="s" s="16">
         <v>74</v>
       </c>
       <c r="E37" t="s" s="16">
-        <v>72</v>
-      </c>
-      <c r="F37" s="48"/>
-      <c r="G37" t="s" s="64">
+        <v>70</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="H37" t="s" s="62">
+      <c r="H37" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" ht="37.5" customHeight="1">
+      <c r="A38" t="s" s="64">
         <v>71</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" ht="37.5" customHeight="1">
-      <c r="A38" t="s" s="65">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s" s="15">
-        <v>80</v>
-      </c>
-      <c r="C38" s="9"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="13"/>
       <c r="D38" t="s" s="16">
         <v>74</v>
       </c>
       <c r="E38" t="s" s="16">
-        <v>39</v>
-      </c>
-      <c r="F38" s="48"/>
+        <v>72</v>
+      </c>
+      <c r="F38" s="50"/>
       <c r="G38" t="s" s="66">
         <v>73</v>
       </c>
-      <c r="H38" t="s" s="67">
+      <c r="H38" t="s" s="64">
+        <v>71</v>
+      </c>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" ht="37.5" customHeight="1">
+      <c r="A39" t="s" s="67">
         <v>79</v>
-      </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" ht="37.5" customHeight="1">
-      <c r="A39" t="s" s="68">
-        <v>81</v>
       </c>
       <c r="B39" t="s" s="15">
         <v>80</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F39" s="48"/>
-      <c r="G39" t="s" s="11">
+      <c r="D39" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" t="s" s="68">
         <v>73</v>
       </c>
       <c r="H39" t="s" s="69">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I39" s="13"/>
     </row>
     <row r="40" ht="37.5" customHeight="1">
       <c r="A40" t="s" s="70">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s" s="15">
         <v>80</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" t="s" s="61">
+      <c r="D40" s="9"/>
+      <c r="E40" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="71">
+        <v>81</v>
+      </c>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" ht="37.5" customHeight="1">
+      <c r="A41" t="s" s="72">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" t="s" s="63">
         <v>74</v>
       </c>
-      <c r="E40" t="s" s="17">
+      <c r="E41" t="s" s="19">
         <v>83</v>
       </c>
-      <c r="F40" t="s" s="71">
+      <c r="F41" t="s" s="73">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="64">
+      <c r="G41" t="s" s="66">
         <v>73</v>
       </c>
-      <c r="H40" t="s" s="72">
+      <c r="H41" t="s" s="74">
         <v>82</v>
       </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" t="s" s="73">
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" t="s" s="75">
         <v>85</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" ht="14" customHeight="1">
-      <c r="A42" t="s" s="33">
+      <c r="B42" s="76"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" ht="14" customHeight="1">
+      <c r="A43" t="s" s="35">
         <v>59</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" t="s" s="15">
+      <c r="B43" s="52"/>
+      <c r="C43" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="16">
+      <c r="D43" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="16">
+      <c r="E43" t="s" s="16">
         <v>60</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="H42" t="s" s="33">
-        <v>59</v>
-      </c>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" ht="91.5" customHeight="1">
-      <c r="A43" t="s" s="33">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s" s="33">
-        <v>87</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="9"/>
-      <c r="E43" t="s" s="35">
-        <v>45</v>
-      </c>
-      <c r="F43" s="48"/>
+      <c r="F43" s="50"/>
       <c r="G43" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="H43" t="s" s="33">
+      <c r="H43" t="s" s="35">
+        <v>59</v>
+      </c>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" ht="91.5" customHeight="1">
+      <c r="A44" t="s" s="35">
         <v>86</v>
       </c>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" ht="14" customHeight="1">
-      <c r="A44" t="s" s="33">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s" s="33">
-        <v>89</v>
+      <c r="B44" t="s" s="35">
+        <v>87</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="9"/>
-      <c r="E44" t="s" s="35">
+      <c r="E44" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="50"/>
       <c r="G44" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="H44" t="s" s="33">
+      <c r="H44" t="s" s="35">
+        <v>86</v>
+      </c>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" ht="14" customHeight="1">
+      <c r="A45" t="s" s="35">
         <v>88</v>
       </c>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" ht="14" customHeight="1">
-      <c r="A45" t="s" s="33">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s" s="33">
-        <v>91</v>
+      <c r="B45" t="s" s="35">
+        <v>89</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="9"/>
-      <c r="E45" t="s" s="35">
+      <c r="E45" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F45" s="48"/>
+      <c r="F45" s="50"/>
       <c r="G45" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="H45" t="s" s="33">
+      <c r="H45" t="s" s="35">
+        <v>88</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" ht="14" customHeight="1">
+      <c r="A46" t="s" s="35">
         <v>90</v>
       </c>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" ht="14" customHeight="1">
-      <c r="A46" t="s" s="33">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s" s="33">
-        <v>93</v>
+      <c r="B46" t="s" s="35">
+        <v>91</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="9"/>
-      <c r="E46" t="s" s="35">
+      <c r="E46" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F46" s="48"/>
+      <c r="F46" s="50"/>
       <c r="G46" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="H46" t="s" s="33">
+      <c r="H46" t="s" s="35">
+        <v>90</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" ht="14" customHeight="1">
+      <c r="A47" t="s" s="35">
         <v>92</v>
       </c>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" ht="14" customHeight="1">
-      <c r="A47" t="s" s="33">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s" s="33">
-        <v>95</v>
+      <c r="B47" t="s" s="35">
+        <v>93</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="9"/>
-      <c r="E47" t="s" s="35">
+      <c r="E47" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="50"/>
       <c r="G47" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="H47" t="s" s="33">
+      <c r="H47" t="s" s="35">
+        <v>92</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" ht="14" customHeight="1">
+      <c r="A48" t="s" s="35">
         <v>94</v>
       </c>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" ht="14" customHeight="1">
-      <c r="A48" t="s" s="6">
-        <v>96</v>
-      </c>
-      <c r="B48" s="50"/>
+      <c r="B48" t="s" s="35">
+        <v>95</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="9"/>
-      <c r="E48" t="s" s="35">
+      <c r="E48" t="s" s="37">
         <v>45</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" ht="30.75" customHeight="1">
-      <c r="A49" t="s" s="33">
+      <c r="F48" s="50"/>
+      <c r="G48" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s" s="35">
+        <v>94</v>
+      </c>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" ht="14" customHeight="1">
+      <c r="A49" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="B49" s="52"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="9"/>
+      <c r="E49" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" ht="30.75" customHeight="1">
+      <c r="A50" t="s" s="35">
         <v>97</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="16">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s" s="75">
-        <v>60</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" t="s" s="60">
-        <v>96</v>
-      </c>
-      <c r="H49" t="s" s="76">
-        <v>97</v>
-      </c>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" ht="30.75" customHeight="1">
-      <c r="A50" t="s" s="33">
-        <v>98</v>
-      </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="52"/>
       <c r="C50" t="s" s="15">
         <v>11</v>
       </c>
@@ -3220,41 +3232,64 @@
         <v>12</v>
       </c>
       <c r="E50" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" t="s" s="62">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s" s="78">
+        <v>97</v>
+      </c>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" ht="30.75" customHeight="1">
+      <c r="A51" t="s" s="35">
+        <v>98</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s" s="79">
         <v>99</v>
       </c>
-      <c r="F50" t="s" s="78">
+      <c r="F51" t="s" s="80">
         <v>100</v>
       </c>
-      <c r="G50" t="s" s="60">
+      <c r="G51" t="s" s="62">
         <v>96</v>
       </c>
-      <c r="H50" t="s" s="33">
+      <c r="H51" t="s" s="35">
         <v>101</v>
       </c>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" ht="30.75" customHeight="1">
-      <c r="A51" t="s" s="33">
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" ht="30.75" customHeight="1">
+      <c r="A52" t="s" s="35">
         <v>96</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" t="s" s="79">
+      <c r="B52" s="36"/>
+      <c r="C52" t="s" s="81">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="80">
+      <c r="D52" t="s" s="82">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="81">
+      <c r="E52" t="s" s="83">
         <v>102</v>
       </c>
-      <c r="F51" s="82"/>
-      <c r="G51" t="s" s="60">
+      <c r="F52" s="84"/>
+      <c r="G52" t="s" s="62">
         <v>96</v>
       </c>
-      <c r="H51" t="s" s="33">
+      <c r="H52" t="s" s="35">
         <v>103</v>
       </c>
-      <c r="I51" s="83"/>
+      <c r="I52" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3273,24 +3308,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.1719" style="84" customWidth="1"/>
-    <col min="2" max="2" width="42.3516" style="84" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="84" customWidth="1"/>
-    <col min="4" max="4" width="23.3516" style="84" customWidth="1"/>
-    <col min="5" max="5" width="28" style="84" customWidth="1"/>
-    <col min="6" max="6" width="31.3516" style="84" customWidth="1"/>
-    <col min="7" max="7" width="26.3516" style="84" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="84" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="84" customWidth="1"/>
-    <col min="10" max="10" width="13.6719" style="84" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="84" customWidth="1"/>
+    <col min="1" max="1" width="38.1719" style="86" customWidth="1"/>
+    <col min="2" max="2" width="42.3516" style="86" customWidth="1"/>
+    <col min="3" max="3" width="13.6719" style="86" customWidth="1"/>
+    <col min="4" max="4" width="23.3516" style="86" customWidth="1"/>
+    <col min="5" max="5" width="28" style="86" customWidth="1"/>
+    <col min="6" max="6" width="31.3516" style="86" customWidth="1"/>
+    <col min="7" max="7" width="26.3516" style="86" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="86" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="86" customWidth="1"/>
+    <col min="10" max="10" width="13.6719" style="86" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="87"/>
       <c r="C1" t="s" s="2">
         <v>104</v>
       </c>
@@ -3303,14 +3338,14 @@
       <c r="F1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" t="s" s="86">
+      <c r="G1" s="87"/>
+      <c r="H1" t="s" s="88">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="87">
+      <c r="I1" t="s" s="89">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="86">
+      <c r="J1" t="s" s="88">
         <v>7</v>
       </c>
     </row>
@@ -3329,7 +3364,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="88">
+      <c r="A3" t="s" s="90">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3350,7 +3385,7 @@
       <c r="C4" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D4" t="s" s="17">
+      <c r="D4" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E4" t="s" s="16">
@@ -3360,167 +3395,167 @@
         <v>13</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" t="s" s="17">
+      <c r="H4" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="I4" t="s" s="18">
-        <v>15</v>
+      <c r="I4" t="s" s="20">
+        <v>16</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D5" t="s" s="17">
+      <c r="D5" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E5" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="F5" t="s" s="17">
-        <v>17</v>
+      <c r="F5" t="s" s="19">
+        <v>18</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" t="s" s="17">
+      <c r="H5" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="I5" t="s" s="18">
-        <v>18</v>
+      <c r="I5" t="s" s="20">
+        <v>19</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D6" t="s" s="17">
+      <c r="D6" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E6" t="s" s="16">
         <v>12</v>
       </c>
       <c r="F6" t="s" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" t="s" s="17">
+      <c r="H6" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="I6" t="s" s="18">
-        <v>21</v>
+      <c r="I6" t="s" s="20">
+        <v>22</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="D7" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E7" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="F7" t="s" s="17">
-        <v>23</v>
+      <c r="F7" t="s" s="19">
+        <v>24</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" t="s" s="17">
+      <c r="H7" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="I7" t="s" s="18">
-        <v>24</v>
+      <c r="I7" t="s" s="20">
+        <v>25</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D8" t="s" s="17">
+      <c r="D8" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E8" t="s" s="16">
         <v>12</v>
       </c>
       <c r="F8" t="s" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" t="s" s="17">
+      <c r="H8" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="I8" t="s" s="19">
-        <v>27</v>
+      <c r="I8" t="s" s="21">
+        <v>28</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="22"/>
       <c r="C9" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="D9" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E9" t="s" s="16">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s" s="16">
         <v>30</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" t="s" s="21">
+      <c r="H9" t="s" s="23">
         <v>106</v>
       </c>
       <c r="I9" t="s" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="23">
+      <c r="A10" t="s" s="25">
         <v>32</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" ht="14" customHeight="1">
-      <c r="A11" t="s" s="33">
+      <c r="A11" t="s" s="35">
         <v>38</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D11" t="s" s="17">
+      <c r="D11" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E11" t="s" s="16">
@@ -3529,70 +3564,70 @@
       <c r="F11" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="G11" t="s" s="17">
+      <c r="G11" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="H11" t="s" s="21">
+      <c r="H11" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I11" t="s" s="33">
+      <c r="I11" t="s" s="35">
         <v>38</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" ht="14" customHeight="1">
-      <c r="A12" t="s" s="33">
+      <c r="A12" t="s" s="35">
         <v>41</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="G12" t="s" s="17">
+      <c r="G12" t="s" s="19">
         <v>42</v>
       </c>
-      <c r="H12" t="s" s="21">
+      <c r="H12" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I12" t="s" s="33">
+      <c r="I12" t="s" s="35">
         <v>41</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" ht="14" customHeight="1">
-      <c r="A13" t="s" s="33">
+      <c r="A13" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="B13" t="s" s="33">
+      <c r="B13" t="s" s="35">
         <v>44</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" t="s" s="89">
+      <c r="F13" t="s" s="91">
         <v>45</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" t="s" s="21">
+      <c r="H13" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I13" t="s" s="33">
+      <c r="I13" t="s" s="35">
         <v>43</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" ht="14" customHeight="1">
-      <c r="A14" t="s" s="33">
+      <c r="A14" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D14" t="s" s="17">
+      <c r="D14" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E14" t="s" s="16">
@@ -3602,38 +3637,38 @@
         <v>47</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" t="s" s="21">
+      <c r="H14" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I14" t="s" s="33">
+      <c r="I14" t="s" s="35">
         <v>46</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" ht="14" customHeight="1">
-      <c r="A15" t="s" s="33">
+      <c r="A15" t="s" s="35">
         <v>48</v>
       </c>
-      <c r="B15" t="s" s="33">
+      <c r="B15" t="s" s="35">
         <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" t="s" s="89">
+      <c r="F15" t="s" s="91">
         <v>45</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" t="s" s="21">
+      <c r="H15" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I15" t="s" s="33">
+      <c r="I15" t="s" s="35">
         <v>48</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" ht="14" customHeight="1">
-      <c r="A16" t="s" s="33">
+      <c r="A16" t="s" s="35">
         <v>50</v>
       </c>
       <c r="B16" t="s" s="11">
@@ -3642,111 +3677,111 @@
       <c r="C16" s="13"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" t="s" s="89">
+      <c r="F16" t="s" s="91">
         <v>45</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" t="s" s="21">
+      <c r="H16" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I16" t="s" s="33">
+      <c r="I16" t="s" s="35">
         <v>50</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" ht="14" customHeight="1">
-      <c r="A17" t="s" s="33">
+      <c r="A17" t="s" s="35">
         <v>52</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D17" t="s" s="17">
+      <c r="D17" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E17" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="F17" t="s" s="90">
+      <c r="F17" t="s" s="92">
         <v>53</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" t="s" s="21">
+      <c r="H17" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I17" t="s" s="33">
+      <c r="I17" t="s" s="35">
         <v>52</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" ht="14" customHeight="1">
-      <c r="A18" t="s" s="33">
+      <c r="A18" t="s" s="35">
         <v>54</v>
       </c>
-      <c r="B18" t="s" s="33">
+      <c r="B18" t="s" s="35">
         <v>55</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" t="s" s="89">
+      <c r="F18" t="s" s="91">
         <v>45</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" t="s" s="21">
+      <c r="H18" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I18" t="s" s="33">
+      <c r="I18" t="s" s="35">
         <v>54</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" ht="14" customHeight="1">
-      <c r="A19" t="s" s="33">
+      <c r="A19" t="s" s="35">
         <v>56</v>
       </c>
-      <c r="B19" t="s" s="33">
+      <c r="B19" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" t="s" s="89">
+      <c r="F19" t="s" s="91">
         <v>45</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" t="s" s="21">
+      <c r="H19" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="I19" t="s" s="33">
+      <c r="I19" t="s" s="35">
         <v>56</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="37">
+      <c r="A20" t="s" s="39">
         <v>58</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" ht="14" customHeight="1">
-      <c r="A21" t="s" s="33">
+      <c r="A21" t="s" s="35">
         <v>59</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D21" t="s" s="17">
+      <c r="D21" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E21" t="s" s="16">
@@ -3755,38 +3790,38 @@
       <c r="F21" t="s" s="16">
         <v>60</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" t="s" s="88">
+      <c r="G21" s="50"/>
+      <c r="H21" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I21" t="s" s="33">
+      <c r="I21" t="s" s="35">
         <v>59</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="88">
+      <c r="A22" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="13"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" ht="14" customHeight="1">
-      <c r="A23" t="s" s="33">
+      <c r="A23" t="s" s="35">
         <v>64</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D23" t="s" s="17">
+      <c r="D23" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E23" t="s" s="16">
@@ -3795,68 +3830,68 @@
       <c r="F23" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" t="s" s="88">
+      <c r="G23" s="50"/>
+      <c r="H23" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I23" t="s" s="33">
+      <c r="I23" t="s" s="35">
         <v>64</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" ht="30.75" customHeight="1">
-      <c r="A24" t="s" s="33">
+      <c r="A24" t="s" s="35">
         <v>66</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="13"/>
       <c r="D24" s="9"/>
-      <c r="E24" t="s" s="17">
+      <c r="E24" t="s" s="19">
         <v>67</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" t="s" s="49">
+      <c r="G24" t="s" s="51">
         <v>68</v>
       </c>
-      <c r="H24" t="s" s="88">
+      <c r="H24" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I24" t="s" s="33">
+      <c r="I24" t="s" s="35">
         <v>66</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" ht="14" customHeight="1">
-      <c r="A25" t="s" s="33">
+      <c r="A25" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="B25" t="s" s="33">
+      <c r="B25" t="s" s="35">
         <v>44</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" t="s" s="89">
+      <c r="F25" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" t="s" s="88">
+      <c r="G25" s="50"/>
+      <c r="H25" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I25" t="s" s="33">
+      <c r="I25" t="s" s="35">
         <v>43</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" ht="14" customHeight="1">
-      <c r="A26" t="s" s="33">
+      <c r="A26" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D26" t="s" s="17">
+      <c r="D26" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E26" t="s" s="16">
@@ -3865,24 +3900,24 @@
       <c r="F26" t="s" s="16">
         <v>47</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" t="s" s="88">
+      <c r="G26" s="50"/>
+      <c r="H26" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I26" t="s" s="33">
+      <c r="I26" t="s" s="35">
         <v>46</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" ht="14" customHeight="1">
-      <c r="A27" t="s" s="33">
+      <c r="A27" t="s" s="35">
         <v>69</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D27" t="s" s="17">
+      <c r="D27" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E27" t="s" s="16">
@@ -3891,24 +3926,24 @@
       <c r="F27" t="s" s="16">
         <v>70</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" t="s" s="88">
+      <c r="G27" s="50"/>
+      <c r="H27" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I27" t="s" s="33">
+      <c r="I27" t="s" s="35">
         <v>69</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" ht="14" customHeight="1">
-      <c r="A28" t="s" s="33">
+      <c r="A28" t="s" s="35">
         <v>71</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D28" t="s" s="17">
+      <c r="D28" t="s" s="19">
         <v>33</v>
       </c>
       <c r="E28" t="s" s="16">
@@ -3917,171 +3952,171 @@
       <c r="F28" t="s" s="16">
         <v>72</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" t="s" s="88">
+      <c r="G28" s="50"/>
+      <c r="H28" t="s" s="90">
         <v>61</v>
       </c>
-      <c r="I28" t="s" s="33">
+      <c r="I28" t="s" s="35">
         <v>71</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="88">
+      <c r="A29" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="13"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" ht="37.5" customHeight="1">
-      <c r="A30" t="s" s="33">
+      <c r="A30" t="s" s="35">
         <v>64</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="22"/>
       <c r="C30" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D30" t="s" s="17">
+      <c r="D30" t="s" s="19">
         <v>33</v>
       </c>
-      <c r="E30" t="s" s="61">
-        <v>107</v>
+      <c r="E30" t="s" s="63">
+        <v>108</v>
       </c>
       <c r="F30" t="s" s="16">
         <v>39</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" t="s" s="88">
+      <c r="G30" s="50"/>
+      <c r="H30" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I30" t="s" s="33">
+      <c r="I30" t="s" s="35">
         <v>64</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="33">
+      <c r="A31" t="s" s="35">
         <v>66</v>
       </c>
-      <c r="B31" t="s" s="33">
+      <c r="B31" t="s" s="35">
         <v>77</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="48"/>
-      <c r="H31" t="s" s="88">
+      <c r="G31" s="50"/>
+      <c r="H31" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I31" t="s" s="33">
+      <c r="I31" t="s" s="35">
         <v>66</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" ht="14" customHeight="1">
-      <c r="A32" t="s" s="33">
+      <c r="A32" t="s" s="35">
         <v>43</v>
       </c>
-      <c r="B32" t="s" s="60">
+      <c r="B32" t="s" s="62">
         <v>78</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" t="s" s="89">
+      <c r="F32" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" t="s" s="88">
+      <c r="G32" s="50"/>
+      <c r="H32" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I32" t="s" s="33">
+      <c r="I32" t="s" s="35">
         <v>43</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" ht="37.5" customHeight="1">
-      <c r="A33" t="s" s="33">
+      <c r="A33" t="s" s="35">
         <v>46</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="52"/>
       <c r="C33" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D33" t="s" s="17">
+      <c r="D33" t="s" s="19">
         <v>33</v>
       </c>
-      <c r="E33" t="s" s="61">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s" s="17">
+      <c r="E33" t="s" s="63">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s" s="19">
         <v>47</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" t="s" s="88">
+      <c r="G33" s="50"/>
+      <c r="H33" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I33" t="s" s="33">
+      <c r="I33" t="s" s="35">
         <v>46</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" ht="37.5" customHeight="1">
-      <c r="A34" t="s" s="33">
+      <c r="A34" t="s" s="35">
         <v>69</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="52"/>
       <c r="C34" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D34" t="s" s="17">
+      <c r="D34" t="s" s="19">
         <v>33</v>
       </c>
-      <c r="E34" t="s" s="61">
-        <v>107</v>
+      <c r="E34" t="s" s="63">
+        <v>108</v>
       </c>
       <c r="F34" t="s" s="16">
         <v>70</v>
       </c>
-      <c r="G34" s="48"/>
-      <c r="H34" t="s" s="88">
+      <c r="G34" s="50"/>
+      <c r="H34" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I34" t="s" s="33">
+      <c r="I34" t="s" s="35">
         <v>69</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" ht="37.5" customHeight="1">
-      <c r="A35" t="s" s="33">
+      <c r="A35" t="s" s="35">
         <v>71</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="22"/>
       <c r="C35" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="D35" t="s" s="17">
+      <c r="D35" t="s" s="19">
         <v>33</v>
       </c>
-      <c r="E35" t="s" s="61">
-        <v>107</v>
+      <c r="E35" t="s" s="63">
+        <v>108</v>
       </c>
       <c r="F35" t="s" s="16">
         <v>72</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" t="s" s="88">
+      <c r="G35" s="50"/>
+      <c r="H35" t="s" s="90">
         <v>73</v>
       </c>
-      <c r="I35" t="s" s="33">
+      <c r="I35" t="s" s="35">
         <v>71</v>
       </c>
       <c r="J35" s="13"/>
@@ -4090,25 +4125,25 @@
       <c r="A36" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="13"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" ht="14" customHeight="1">
-      <c r="A37" t="s" s="33">
+      <c r="A37" t="s" s="35">
         <v>59</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="52"/>
       <c r="C37" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D37" t="s" s="17">
+      <c r="D37" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E37" t="s" s="16">
@@ -4117,121 +4152,121 @@
       <c r="F37" t="s" s="16">
         <v>60</v>
       </c>
-      <c r="G37" s="48"/>
+      <c r="G37" s="50"/>
       <c r="H37" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I37" t="s" s="33">
+      <c r="I37" t="s" s="35">
         <v>59</v>
       </c>
       <c r="J37" s="13"/>
     </row>
     <row r="38" ht="91.5" customHeight="1">
-      <c r="A38" t="s" s="33">
+      <c r="A38" t="s" s="35">
         <v>86</v>
       </c>
-      <c r="B38" t="s" s="33">
+      <c r="B38" t="s" s="35">
         <v>87</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" t="s" s="89">
+      <c r="F38" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G38" s="48"/>
+      <c r="G38" s="50"/>
       <c r="H38" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I38" t="s" s="33">
+      <c r="I38" t="s" s="35">
         <v>86</v>
       </c>
       <c r="J38" s="13"/>
     </row>
     <row r="39" ht="14" customHeight="1">
-      <c r="A39" t="s" s="33">
+      <c r="A39" t="s" s="35">
         <v>88</v>
       </c>
-      <c r="B39" t="s" s="33">
+      <c r="B39" t="s" s="35">
         <v>89</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" t="s" s="89">
+      <c r="F39" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="50"/>
       <c r="H39" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I39" t="s" s="33">
+      <c r="I39" t="s" s="35">
         <v>88</v>
       </c>
       <c r="J39" s="13"/>
     </row>
     <row r="40" ht="14" customHeight="1">
-      <c r="A40" t="s" s="33">
+      <c r="A40" t="s" s="35">
         <v>90</v>
       </c>
-      <c r="B40" t="s" s="33">
+      <c r="B40" t="s" s="35">
         <v>91</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" t="s" s="89">
+      <c r="F40" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="50"/>
       <c r="H40" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I40" t="s" s="33">
+      <c r="I40" t="s" s="35">
         <v>90</v>
       </c>
       <c r="J40" s="13"/>
     </row>
     <row r="41" ht="14" customHeight="1">
-      <c r="A41" t="s" s="33">
+      <c r="A41" t="s" s="35">
         <v>92</v>
       </c>
-      <c r="B41" t="s" s="33">
+      <c r="B41" t="s" s="35">
         <v>93</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" t="s" s="89">
+      <c r="F41" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G41" s="48"/>
+      <c r="G41" s="50"/>
       <c r="H41" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I41" t="s" s="33">
+      <c r="I41" t="s" s="35">
         <v>92</v>
       </c>
       <c r="J41" s="13"/>
     </row>
     <row r="42" ht="14" customHeight="1">
-      <c r="A42" t="s" s="33">
+      <c r="A42" t="s" s="35">
         <v>94</v>
       </c>
-      <c r="B42" t="s" s="33">
+      <c r="B42" t="s" s="35">
         <v>95</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" t="s" s="89">
+      <c r="F42" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G42" s="48"/>
+      <c r="G42" s="50"/>
       <c r="H42" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="I42" t="s" s="33">
+      <c r="I42" t="s" s="35">
         <v>94</v>
       </c>
       <c r="J42" s="13"/>
@@ -4240,92 +4275,92 @@
       <c r="A43" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="13"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" t="s" s="89">
+      <c r="F43" t="s" s="91">
         <v>45</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="9"/>
     </row>
     <row r="44" ht="30.75" customHeight="1">
-      <c r="A44" t="s" s="33">
+      <c r="A44" t="s" s="35">
         <v>97</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="52"/>
       <c r="C44" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D44" t="s" s="17">
+      <c r="D44" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E44" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="F44" t="s" s="75">
+      <c r="F44" t="s" s="77">
         <v>60</v>
       </c>
       <c r="G44" s="11"/>
-      <c r="H44" t="s" s="60">
+      <c r="H44" t="s" s="62">
         <v>96</v>
       </c>
-      <c r="I44" t="s" s="76">
+      <c r="I44" t="s" s="78">
         <v>97</v>
       </c>
       <c r="J44" s="13"/>
     </row>
     <row r="45" ht="30.75" customHeight="1">
-      <c r="A45" t="s" s="33">
+      <c r="A45" t="s" s="35">
         <v>98</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="36"/>
       <c r="C45" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D45" t="s" s="17">
+      <c r="D45" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E45" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="F45" t="s" s="91">
-        <v>108</v>
-      </c>
-      <c r="G45" s="92"/>
-      <c r="H45" t="s" s="60">
+      <c r="F45" t="s" s="93">
+        <v>109</v>
+      </c>
+      <c r="G45" s="94"/>
+      <c r="H45" t="s" s="62">
         <v>96</v>
       </c>
-      <c r="I45" t="s" s="33">
+      <c r="I45" t="s" s="35">
         <v>98</v>
       </c>
       <c r="J45" s="13"/>
     </row>
     <row r="46" ht="30.75" customHeight="1">
-      <c r="A46" t="s" s="33">
+      <c r="A46" t="s" s="35">
         <v>96</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="36"/>
       <c r="C46" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="D46" t="s" s="17">
+      <c r="D46" t="s" s="19">
         <v>11</v>
       </c>
       <c r="E46" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="F46" t="s" s="90">
+      <c r="F46" t="s" s="92">
         <v>102</v>
       </c>
-      <c r="G46" s="48"/>
-      <c r="H46" t="s" s="60">
+      <c r="G46" s="50"/>
+      <c r="H46" t="s" s="62">
         <v>96</v>
       </c>
-      <c r="I46" t="s" s="33">
+      <c r="I46" t="s" s="35">
         <v>96</v>
       </c>
       <c r="J46" s="13"/>
